--- a/CAPACITORS.xlsx
+++ b/CAPACITORS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="131">
   <si>
     <t>Part Number</t>
   </si>
@@ -360,6 +360,75 @@
   </si>
   <si>
     <t>22 UF</t>
+  </si>
+  <si>
+    <t>CC0402KRX5R6BB104</t>
+  </si>
+  <si>
+    <t>F930J106MAA</t>
+  </si>
+  <si>
+    <t>293D106X0010A2TE3</t>
+  </si>
+  <si>
+    <t>CC0402MRX5R5BB475</t>
+  </si>
+  <si>
+    <t>GRM188R60J475KE19D</t>
+  </si>
+  <si>
+    <t>F920J475MPA</t>
+  </si>
+  <si>
+    <t>GRM1885C1H200JA01D</t>
+  </si>
+  <si>
+    <t>GRM188R71C103KA01D</t>
+  </si>
+  <si>
+    <t>CC0603KRX5R6BB105</t>
+  </si>
+  <si>
+    <t>CL10F474ZB8NNNC</t>
+  </si>
+  <si>
+    <t>0.47 UF</t>
+  </si>
+  <si>
+    <t>0.01 UF</t>
+  </si>
+  <si>
+    <t>VJ0402V104ZXJCW1BC</t>
+  </si>
+  <si>
+    <t>CL05A104JO5NNNC</t>
+  </si>
+  <si>
+    <t>C1608C0G1H220J080AA</t>
+  </si>
+  <si>
+    <t>C0402C270K5GACTU</t>
+  </si>
+  <si>
+    <t>27 PF</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNE</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN331</t>
+  </si>
+  <si>
+    <t>330 PF</t>
+  </si>
+  <si>
+    <t>CL21A226KPCLRNC</t>
+  </si>
+  <si>
+    <t>885012206042</t>
+  </si>
+  <si>
+    <t>GRM319R6YA106KA12D</t>
   </si>
 </sst>
 </file>
@@ -461,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,22 +539,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,21 +587,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -597,7 +659,8 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -661,6 +724,20 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -675,19 +752,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="1" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:G47"/>
-  <sortState ref="A2:G46">
-    <sortCondition ref="D1:D46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G67" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:G67"/>
+  <sortState ref="A2:G67">
+    <sortCondition ref="A1:A67"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="VAL" dataDxfId="7"/>
-    <tableColumn id="7" name="Voltage" dataDxfId="6"/>
-    <tableColumn id="1" name="Tolerance" dataDxfId="0"/>
-    <tableColumn id="3" name="Part Number" dataDxfId="5"/>
-    <tableColumn id="4" name="QTY" dataDxfId="4"/>
-    <tableColumn id="5" name="Package" dataDxfId="3"/>
-    <tableColumn id="6" name="Dielectric" dataDxfId="2"/>
+    <tableColumn id="2" name="VAL" dataDxfId="6"/>
+    <tableColumn id="7" name="Voltage" dataDxfId="5"/>
+    <tableColumn id="1" name="Tolerance" dataDxfId="4"/>
+    <tableColumn id="3" name="Part Number" dataDxfId="0"/>
+    <tableColumn id="4" name="QTY" dataDxfId="3"/>
+    <tableColumn id="5" name="Package" dataDxfId="2"/>
+    <tableColumn id="6" name="Dielectric" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,316 +1033,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="17.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="27" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="3">
+        <v>450</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="2">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="2">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="2">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="2">
-        <v>30</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1273,620 +1350,620 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="2">
-        <v>100</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="2">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2">
+        <v>25</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="3">
         <v>20</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D30" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="G30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="3">
-        <v>20</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="3">
-        <v>25</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="2">
-        <v>40</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="D31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="2">
-        <v>8</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="3">
-        <v>7</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="2">
-        <v>8</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="2">
-        <v>40</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="2">
-        <v>9</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>48</v>
+      <c r="D32" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E32" s="2">
-        <v>50</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>41</v>
+      <c r="D33" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E33" s="2">
         <v>9</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="2">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="2">
-        <v>25</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="3">
+        <v>30</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D40" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E40" s="3">
         <v>30</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="3">
-        <v>30</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="3">
-        <v>10</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="3">
-        <v>8</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -1894,68 +1971,68 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="3">
-        <v>5</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>6</v>
+      <c r="A41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="3">
-        <v>6</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>96</v>
+      <c r="A42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="10" t="s">
         <v>97</v>
       </c>
       <c r="E43" s="3">
         <v>14</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -1963,95 +2040,555 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="2">
-        <v>14</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>6</v>
+      <c r="A44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="2">
+        <v>15</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="3">
+        <v>25</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="2">
+        <v>35</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="2">
+        <v>8</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E51" s="3">
         <v>8</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="3">
-        <v>20</v>
-      </c>
-      <c r="F46" s="7" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="2">
+        <v>100</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="2">
+        <v>30</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="2">
+        <v>14</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="2">
+        <v>25</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D58" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="2">
+        <v>10</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="2">
         <v>8</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="2">
+        <v>50</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="3">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="2">
+        <v>15</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>39</v>
+      <c r="G66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="3">
+        <v>12</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
